--- a/BDA_WP.xlsx
+++ b/BDA_WP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdaproject\whitepaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A603579-1A19-4E47-A66D-20D29D7F4F58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="7065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -993,7 +992,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1061,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1122,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1172,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1222,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1286,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1336,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1386,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1436,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1571,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1590,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1670,7 +1669,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1703,7 +1702,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1768,7 +1767,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1833,7 +1832,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1866,7 +1865,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1901,7 +1900,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1936,7 +1935,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1971,7 +1970,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2006,7 +2005,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2047,22 +2046,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>444539</xdr:colOff>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>303959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>490258</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>99172</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>299358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,8 +2069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2685715" y="1245253"/>
-          <a:ext cx="45719" cy="13600860"/>
+          <a:off x="2653393" y="1365316"/>
+          <a:ext cx="54829" cy="13262363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2130,7 +2129,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2184,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2241,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2298,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2355,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2412,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2469,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2526,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2583,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2638,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2695,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2752,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2809,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3552,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
@@ -3573,11 +3572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>

--- a/BDA_WP.xlsx
+++ b/BDA_WP.xlsx
@@ -736,7 +736,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9月に続いて、この期間で複数の取引所に上場を目指します。。</t>
+    <t>9月に続いて、この期間で複数の取引所に上場を目指します。</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
     </rPh>
@@ -992,7 +992,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1122,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1172,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1222,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1336,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A782B78C-F582-4B8A-A2D0-5782AA168446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1590,7 @@
           <xdr:cNvPr id="9" name="角丸四角形 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30637811-D117-4C15-8694-D9EBE9141239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D999052-1A10-4BBF-9509-C7664CF10CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1702,7 +1702,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C91B7-BBBB-4AAD-8D01-9A5C1B7861F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1767,7 +1767,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788B12AF-85D3-4943-B7F3-FEFCABB709E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1832,7 +1832,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC89E5E5-6C1D-48DC-BF3C-E77BF2A526B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1865,7 +1865,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702889B0-EBB1-4A87-91FA-550CF062DF46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D1FA35-5232-4235-B353-08CD55C4BBC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1935,7 +1935,7 @@
           <xdr:cNvPr id="18" name="図 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B43FD60-25FA-4384-9EA9-6E6B7AAFF13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1970,7 +1970,7 @@
           <xdr:cNvPr id="20" name="図 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E721357-D372-4438-9304-919E55333A2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2005,7 +2005,7 @@
           <xdr:cNvPr id="21" name="図 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4FE4FC-0D2B-4A4B-ABAD-B64E34597453}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2129,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2184,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2241,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2298,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2355,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2412,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2583,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2695,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2752,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DC1C7F-5448-4592-91ED-B5E16591342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED20F5C-C7BC-44EA-9D0F-EC31FA2911D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
